--- a/t1_confection/CapacityAndDistances.xlsx
+++ b/t1_confection/CapacityAndDistances.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClimateLeadGroup\Desktop\CLG_repositories\relac_tx\t1_confection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clgcr-my.sharepoint.com/personal/asalazar_clg-cr_com/Documents/Archivos de chat de Microsoft Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055FF391-7540-4C46-8AE3-F3B105CFF878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{055FF391-7540-4C46-8AE3-F3B105CFF878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42173686-A364-4ACF-8178-A30F6547B0B2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C96E5F6-F950-4B3A-9DA0-C225FFFF14E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$153</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -505,19 +508,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5565BA-9CF5-4FA5-B374-01C254CE755C}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:A153"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -534,7 +537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -551,7 +554,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -562,13 +565,13 @@
         <v>0.39438796888343336</v>
       </c>
       <c r="D3">
-        <v>65.12</v>
+        <v>186.34</v>
       </c>
       <c r="E3">
-        <v>11.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -585,7 +588,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -602,7 +605,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -619,7 +622,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -636,7 +639,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -653,7 +656,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -670,7 +673,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -687,7 +690,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -704,7 +707,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -721,7 +724,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -738,7 +741,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -755,7 +758,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -772,7 +775,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -789,7 +792,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -806,7 +809,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -823,7 +826,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -840,7 +843,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -857,7 +860,7 @@
         <v>2560.672</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -874,7 +877,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -885,13 +888,13 @@
         <v>0.39438796888343336</v>
       </c>
       <c r="D22">
-        <v>65.12</v>
+        <v>186.34</v>
       </c>
       <c r="E22">
-        <v>11.46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -908,7 +911,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -925,7 +928,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -942,7 +945,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -959,7 +962,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -976,7 +979,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -993,7 +996,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>2560.672</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1208,13 +1211,13 @@
         <v>0.39438796888343336</v>
       </c>
       <c r="D41">
-        <v>65.12</v>
+        <v>186.34</v>
       </c>
       <c r="E41">
-        <v>11.46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>2560.672</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -1531,13 +1534,13 @@
         <v>0.39438796888343336</v>
       </c>
       <c r="D60">
-        <v>65.12</v>
+        <v>186.34</v>
       </c>
       <c r="E60">
-        <v>11.46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>2560.672</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -1854,13 +1857,13 @@
         <v>0.39438796888343336</v>
       </c>
       <c r="D79">
-        <v>65.12</v>
+        <v>186.34</v>
       </c>
       <c r="E79">
-        <v>11.46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>2560.672</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -2177,13 +2180,13 @@
         <v>0.39438796888343336</v>
       </c>
       <c r="D98">
-        <v>65.12</v>
+        <v>186.34</v>
       </c>
       <c r="E98">
-        <v>11.46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>29</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>29</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>29</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>29</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>29</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>29</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>29</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>29</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>2560.672</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -2500,13 +2503,13 @@
         <v>0.39438796888343336</v>
       </c>
       <c r="D117">
-        <v>65.12</v>
+        <v>186.34</v>
       </c>
       <c r="E117">
-        <v>11.46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>30</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>30</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +2628,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>30</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>2560.672</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -2823,13 +2826,13 @@
         <v>0.39438796888343336</v>
       </c>
       <c r="D136">
-        <v>65.12</v>
+        <v>186.34</v>
       </c>
       <c r="E136">
-        <v>11.46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>31</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>31</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>31</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -3119,31 +3122,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E153" xr:uid="{4F5565BA-9CF5-4FA5-B374-01C254CE755C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7db9c71a-8f0f-4486-8c92-6242e053eab7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000F48F53D8446FB4EB61FD3AFE2640F25" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a214a3ba0c52ae00a3b9ea52e20da1dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7db9c71a-8f0f-4486-8c92-6242e053eab7" xmlns:ns3="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1812e4edb338c892157ee4b16223776a" ns2:_="" ns3:_="">
     <xsd:import namespace="7db9c71a-8f0f-4486-8c92-6242e053eab7"/>
@@ -3332,32 +3316,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A315B7F4-1990-4345-A26A-1FEB42F24CF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7db9c71a-8f0f-4486-8c92-6242e053eab7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8ae01698-3168-4e7f-b9e7-0ddc1c80de73"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F224398-9CAE-4ABB-8BD0-D44A1FFE7284}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7db9c71a-8f0f-4486-8c92-6242e053eab7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FDD807C-2497-4096-8FB6-8C801BBCCBC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3374,4 +3353,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F224398-9CAE-4ABB-8BD0-D44A1FFE7284}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A315B7F4-1990-4345-A26A-1FEB42F24CF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7db9c71a-8f0f-4486-8c92-6242e053eab7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8ae01698-3168-4e7f-b9e7-0ddc1c80de73"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/t1_confection/CapacityAndDistances.xlsx
+++ b/t1_confection/CapacityAndDistances.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clgcr-my.sharepoint.com/personal/asalazar_clg-cr_com/Documents/Archivos de chat de Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClimateLeadGroup\Desktop\CLG_repositories\relac_tx\t1_confection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{055FF391-7540-4C46-8AE3-F3B105CFF878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42173686-A364-4ACF-8178-A30F6547B0B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AC5D30-6F52-4051-A2E9-2212DE461891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C96E5F6-F950-4B3A-9DA0-C225FFFF14E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C96E5F6-F950-4B3A-9DA0-C225FFFF14E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,10 +141,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,8 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,21 +514,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5565BA-9CF5-4FA5-B374-01C254CE755C}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="L151" sqref="L151:M158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -537,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -554,7 +562,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -571,7 +579,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -588,7 +596,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -605,7 +613,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -622,7 +630,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -639,7 +647,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -656,7 +664,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -673,7 +681,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -690,7 +698,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -707,7 +715,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -724,7 +732,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -741,7 +749,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -758,7 +766,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -775,7 +783,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -792,7 +800,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -809,7 +817,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -826,7 +834,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -843,7 +851,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -854,13 +862,13 @@
         <v>0.85736514974659417</v>
       </c>
       <c r="D20">
-        <v>4402.92</v>
+        <v>628.98857142857139</v>
       </c>
       <c r="E20">
-        <v>2560.672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>365.81028571428573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -877,7 +885,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -894,7 +902,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -911,7 +919,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -928,7 +936,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -945,7 +953,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -962,7 +970,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -979,7 +987,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -996,7 +1004,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1013,7 +1021,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1072,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1174,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1177,13 +1185,13 @@
         <v>0.85736514974659417</v>
       </c>
       <c r="D39">
-        <v>4402.92</v>
+        <v>628.98857142857139</v>
       </c>
       <c r="E39">
-        <v>2560.672</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>365.81028571428573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1200,7 +1208,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1217,7 +1225,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1268,7 +1276,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1327,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -1353,7 +1361,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -1370,7 +1378,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1387,7 +1395,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1421,7 +1429,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1438,7 +1446,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +1497,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1500,13 +1508,13 @@
         <v>0.85736514974659417</v>
       </c>
       <c r="D58">
-        <v>4402.92</v>
+        <v>628.98857142857139</v>
       </c>
       <c r="E58">
-        <v>2560.672</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>365.81028571428573</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -1523,7 +1531,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -1540,7 +1548,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -1557,7 +1565,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -1574,7 +1582,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -1608,7 +1616,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -1676,7 +1684,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -1693,7 +1701,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -1710,7 +1718,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -1744,7 +1752,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -1778,7 +1786,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -1795,7 +1803,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -1812,7 +1820,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -1823,13 +1831,13 @@
         <v>0.85736514974659417</v>
       </c>
       <c r="D77">
-        <v>4402.92</v>
+        <v>628.98857142857139</v>
       </c>
       <c r="E77">
-        <v>2560.672</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>365.81028571428573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -1846,7 +1854,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -1863,7 +1871,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -1880,7 +1888,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -1897,7 +1905,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1922,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -1931,7 +1939,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -1965,7 +1973,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -1982,7 +1990,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -1999,7 +2007,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -2016,7 +2024,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -2084,7 +2092,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -2101,7 +2109,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -2118,7 +2126,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -2135,7 +2143,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -2146,13 +2154,13 @@
         <v>0.85736514974659417</v>
       </c>
       <c r="D96">
-        <v>4402.92</v>
+        <v>628.98857142857139</v>
       </c>
       <c r="E96">
-        <v>2560.672</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>365.81028571428573</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -2169,7 +2177,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -2186,7 +2194,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -2203,7 +2211,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -2237,7 +2245,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>29</v>
       </c>
@@ -2254,7 +2262,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -2271,7 +2279,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -2288,7 +2296,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>29</v>
       </c>
@@ -2305,7 +2313,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>29</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>29</v>
       </c>
@@ -2339,7 +2347,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>29</v>
       </c>
@@ -2356,7 +2364,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -2373,7 +2381,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>29</v>
       </c>
@@ -2390,7 +2398,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>29</v>
       </c>
@@ -2407,7 +2415,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -2424,7 +2432,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>29</v>
       </c>
@@ -2441,7 +2449,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -2458,7 +2466,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -2469,13 +2477,13 @@
         <v>0.85736514974659417</v>
       </c>
       <c r="D115">
-        <v>4402.92</v>
+        <v>628.98857142857139</v>
       </c>
       <c r="E115">
-        <v>2560.672</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>365.81028571428573</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -2492,7 +2500,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -2509,7 +2517,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2526,7 +2534,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -2543,7 +2551,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>30</v>
       </c>
@@ -2560,7 +2568,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>30</v>
       </c>
@@ -2577,7 +2585,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -2611,7 +2619,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>30</v>
       </c>
@@ -2628,7 +2636,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -2645,7 +2653,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -2662,7 +2670,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>30</v>
       </c>
@@ -2679,7 +2687,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -2696,7 +2704,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -2730,7 +2738,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -2747,7 +2755,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -2764,7 +2772,7 @@
         <v>352.42</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -2781,7 +2789,7 @@
         <v>355.66</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -2792,13 +2800,13 @@
         <v>0.85736514974659417</v>
       </c>
       <c r="D134">
-        <v>4402.92</v>
+        <v>628.98857142857139</v>
       </c>
       <c r="E134">
-        <v>2560.672</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>365.81028571428573</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -2832,7 +2840,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>31</v>
       </c>
@@ -2849,7 +2857,7 @@
         <v>192.17599999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -2866,7 +2874,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>31</v>
       </c>
@@ -2883,7 +2891,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>31</v>
       </c>
@@ -2900,7 +2908,7 @@
         <v>64.025000000000006</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -2917,7 +2925,7 @@
         <v>48.194999999999993</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -2934,7 +2942,7 @@
         <v>46.660833333333329</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -2951,7 +2959,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -2968,7 +2976,7 @@
         <v>81.328000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -2985,7 +2993,7 @@
         <v>48.417777777777779</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -3019,7 +3027,7 @@
         <v>131.62799999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -3036,7 +3044,7 @@
         <v>194.56100000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -3053,7 +3061,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -3070,7 +3078,7 @@
         <v>131.28</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -3086,8 +3094,11 @@
       <c r="E151">
         <v>352.42</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -3103,8 +3114,11 @@
       <c r="E152">
         <v>355.66</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -3115,11 +3129,34 @@
         <v>0.85736514974659417</v>
       </c>
       <c r="D153">
-        <v>4402.92</v>
+        <v>628.98857142857139</v>
       </c>
       <c r="E153">
-        <v>2560.672</v>
-      </c>
+        <v>365.81028571428573</v>
+      </c>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E153" xr:uid="{4F5565BA-9CF5-4FA5-B374-01C254CE755C}"/>
@@ -3128,6 +3165,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000F48F53D8446FB4EB61FD3AFE2640F25" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a214a3ba0c52ae00a3b9ea52e20da1dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7db9c71a-8f0f-4486-8c92-6242e053eab7" xmlns:ns3="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1812e4edb338c892157ee4b16223776a" ns2:_="" ns3:_="">
     <xsd:import namespace="7db9c71a-8f0f-4486-8c92-6242e053eab7"/>
@@ -3316,15 +3362,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3337,6 +3374,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F224398-9CAE-4ABB-8BD0-D44A1FFE7284}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FDD807C-2497-4096-8FB6-8C801BBCCBC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3351,14 +3396,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F224398-9CAE-4ABB-8BD0-D44A1FFE7284}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
